--- a/Medium Instances/Medium5.xlsx
+++ b/Medium Instances/Medium5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobnitter/Documents/NTNU/Prosjektoppgave/samkjoring2022/Medium Instances/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Medium Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5A3084-7D23-D04E-99AA-003F204A8E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B04CD2-8A59-4C6A-840C-157BE71FD99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium5" sheetId="14" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Reisetider" sheetId="3" r:id="rId10"/>
     <sheet name="Koordinater" sheetId="4" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,8 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1117,18 +1115,18 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,56 +1170,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1246,56 +1244,56 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.354616</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1322,29 +1320,29 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1371,7 +1369,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1395,56 +1393,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D26" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
-        <f t="shared" ref="I5:I26" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <f t="shared" ref="I5:I6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1468,29 +1466,29 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1541,7 +1539,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1567,30 +1565,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -1605,56 +1603,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ref="C8:C32" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f t="shared" ref="C8:C31" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8:D27" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" ref="H8:H32" ca="1" si="12">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <f t="shared" ref="H8:H31" ca="1" si="12">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8:I27" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -1669,56 +1667,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f t="shared" ref="G9:G32" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <f t="shared" ref="G9:G31" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1730,56 +1728,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f t="shared" ref="B9:B32" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1791,29 +1789,29 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -1840,7 +1838,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1853,29 +1851,29 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -1902,7 +1900,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1917,59 +1915,59 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2021,7 +2019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -2047,55 +2045,55 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2122,163 +2120,163 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" ref="E18:F32" ca="1" si="16">C18*111.021</f>
-        <v>568.57551099299997</v>
+        <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
+        <v>553.10906446199999</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" ref="J18:K32" ca="1" si="17">H18*111.021</f>
-        <v>583.82346819600002</v>
+        <f t="shared" ref="J18:K31" ca="1" si="17">H18*111.021</f>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2294,29 +2292,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2343,7 +2341,7 @@
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2361,29 +2359,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2410,7 +2408,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2428,56 +2426,56 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2501,7 +2499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -2527,30 +2525,30 @@
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2574,56 +2572,56 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2648,56 +2646,56 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2718,56 +2716,56 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -2788,56 +2786,56 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -2858,29 +2856,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" ref="D28:D32" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.354084999999998</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2891,7 +2889,7 @@
         <v>5.3261630000000002</v>
       </c>
       <c r="I28" s="63">
-        <f t="shared" ref="I28:I32" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <f t="shared" ref="I28:I31" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
         <v>60.395409000000001</v>
       </c>
       <c r="J28" s="8">
@@ -2907,7 +2905,7 @@
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -2928,7 +2926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
@@ -2954,30 +2952,30 @@
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -2998,56 +2996,56 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -3068,56 +3066,56 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -3138,7 +3136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3171,7 +3169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -3199,7 +3197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -3225,7 +3223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -3253,7 +3251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -3281,7 +3279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -3309,7 +3307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -3337,7 +3335,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -3365,7 +3363,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -3391,7 +3389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -3419,7 +3417,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -3447,7 +3445,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -3475,7 +3473,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -3503,7 +3501,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -3523,7 +3521,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -3543,7 +3541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -3563,7 +3561,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -3581,9 +3579,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
         <v>28</v>
@@ -3598,7 +3596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>25</v>
       </c>
@@ -3615,7 +3613,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
@@ -3632,7 +3630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>40</v>
       </c>
@@ -3649,7 +3647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
@@ -3666,7 +3664,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
@@ -3683,7 +3681,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>38</v>
       </c>
@@ -3703,7 +3701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>46</v>
       </c>
@@ -3723,7 +3721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>39</v>
       </c>
@@ -3743,7 +3741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>47</v>
       </c>
@@ -3763,7 +3761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>48</v>
       </c>
@@ -3783,7 +3781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>34</v>
       </c>
@@ -3803,7 +3801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>37</v>
       </c>
@@ -3823,7 +3821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>49</v>
       </c>
@@ -3843,7 +3841,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>35</v>
       </c>
@@ -3863,7 +3861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>50</v>
       </c>
@@ -3881,7 +3879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
@@ -3901,7 +3899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>52</v>
       </c>
@@ -3921,7 +3919,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>53</v>
       </c>
@@ -3941,7 +3939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>54</v>
       </c>
@@ -3961,7 +3959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>55</v>
       </c>
@@ -3981,7 +3979,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>56</v>
       </c>
@@ -3999,7 +3997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
@@ -4019,7 +4017,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>57</v>
       </c>
@@ -4039,7 +4037,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>58</v>
       </c>
@@ -4059,7 +4057,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>59</v>
       </c>
@@ -4079,7 +4077,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>60</v>
       </c>
@@ -4099,7 +4097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>36</v>
       </c>
@@ -4119,7 +4117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="58" t="s">
         <v>15</v>
       </c>
@@ -4153,9 +4151,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
@@ -4175,7 +4173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
@@ -4195,7 +4193,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
@@ -4215,7 +4213,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -4235,7 +4233,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
@@ -4255,7 +4253,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
@@ -4266,7 +4264,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
@@ -4277,7 +4275,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
@@ -4288,7 +4286,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
@@ -4299,7 +4297,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
@@ -4310,7 +4308,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
@@ -4334,18 +4332,18 @@
       <selection activeCell="O27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4389,7 +4387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -4461,7 +4459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -4473,7 +4471,7 @@
         <v>4.9934529999999997</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <f t="shared" ref="D3" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
         <v>60.388651000000003</v>
       </c>
       <c r="E3" s="5">
@@ -4535,7 +4533,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -4606,7 +4604,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -4677,7 +4675,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -4748,7 +4746,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -4810,7 +4808,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -4872,32 +4870,32 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f t="shared" ref="B7:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f t="shared" ref="G7:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
         <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
@@ -4921,7 +4919,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -4933,29 +4931,29 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -4982,7 +4980,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -4994,56 +4992,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -5056,56 +5054,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -5120,111 +5118,111 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -5250,55 +5248,55 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5325,32 +5323,32 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5377,32 +5375,32 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5432,29 +5430,29 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5481,7 +5479,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -5497,56 +5495,56 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -5564,56 +5562,56 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -5631,7 +5629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -5657,30 +5655,30 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -5704,56 +5702,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -5777,7 +5775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -5803,30 +5801,30 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -5851,56 +5849,56 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -5921,56 +5919,56 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -5991,56 +5989,56 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ref="I27" ca="1" si="22">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -6061,7 +6059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -6089,7 +6087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -6117,7 +6115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -6145,7 +6143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -6173,7 +6171,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -6201,7 +6199,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -6229,7 +6227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -6255,7 +6253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -6283,7 +6281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -6311,7 +6309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -6339,7 +6337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -6367,7 +6365,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -6395,7 +6393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -6421,7 +6419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -6449,7 +6447,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -6477,7 +6475,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -6505,7 +6503,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -6533,7 +6531,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -6553,7 +6551,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -6573,7 +6571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -6593,7 +6591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -6610,18 +6608,18 @@
       <selection activeCell="N25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6665,7 +6663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -6737,7 +6735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -6749,7 +6747,7 @@
         <v>4.9934529999999997</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <f t="shared" ref="D3" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
         <v>60.388651000000003</v>
       </c>
       <c r="E3" s="5">
@@ -6811,7 +6809,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -6882,7 +6880,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -6953,7 +6951,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -7024,56 +7022,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -7085,56 +7083,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -7146,49 +7144,49 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
@@ -7207,56 +7205,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -7268,56 +7266,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -7330,56 +7328,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -7394,257 +7392,257 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
@@ -7654,108 +7652,108 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -7771,29 +7769,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7820,7 +7818,7 @@
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -7838,29 +7836,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7887,7 +7885,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -7905,56 +7903,56 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -7978,7 +7976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -8004,30 +8002,30 @@
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -8051,29 +8049,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8100,7 +8098,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -8125,56 +8123,56 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -8195,49 +8193,49 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
@@ -8265,7 +8263,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -8293,7 +8291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -8321,7 +8319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -8349,7 +8347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -8377,7 +8375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -8405,7 +8403,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -8433,7 +8431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -8461,7 +8459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -8487,7 +8485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -8515,7 +8513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -8543,7 +8541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -8571,7 +8569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -8599,7 +8597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -8627,7 +8625,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -8653,7 +8651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -8681,7 +8679,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -8709,7 +8707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -8737,7 +8735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -8765,7 +8763,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -8785,7 +8783,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -8805,7 +8803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -8825,7 +8823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -8842,18 +8840,18 @@
       <selection activeCell="N19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8897,7 +8895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -8969,7 +8967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -8981,7 +8979,7 @@
         <v>4.9934529999999997</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <f t="shared" ref="D3" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
         <v>60.388651000000003</v>
       </c>
       <c r="E3" s="5">
@@ -9043,7 +9041,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -9114,7 +9112,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -9185,7 +9183,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -9256,56 +9254,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -9317,29 +9315,29 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9366,7 +9364,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -9378,29 +9376,29 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9427,7 +9425,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -9439,29 +9437,29 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9488,7 +9486,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -9500,56 +9498,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -9562,7 +9560,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -9588,30 +9586,30 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -9626,341 +9624,341 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9987,7 +9985,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -10003,7 +10001,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -10028,7 +10026,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -10053,7 +10051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -10084,7 +10082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -10115,7 +10113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -10147,7 +10145,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -10175,7 +10173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -10203,7 +10201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -10231,7 +10229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -10259,7 +10257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -10287,7 +10285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -10315,7 +10313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -10343,7 +10341,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -10371,7 +10369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -10399,7 +10397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -10425,7 +10423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -10453,7 +10451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -10481,7 +10479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -10509,7 +10507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -10537,7 +10535,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -10565,7 +10563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -10591,7 +10589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -10619,7 +10617,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -10647,7 +10645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -10675,7 +10673,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -10703,7 +10701,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -10723,7 +10721,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -10743,7 +10741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -10763,7 +10761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -10780,18 +10778,18 @@
       <selection activeCell="H27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10835,7 +10833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -10907,7 +10905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -10919,7 +10917,7 @@
         <v>4.9934529999999997</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <f t="shared" ref="D3" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
         <v>60.388651000000003</v>
       </c>
       <c r="E3" s="5">
@@ -10981,7 +10979,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -11052,7 +11050,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -11123,7 +11121,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -11194,16 +11192,16 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f t="shared" ref="B5:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
         <v>Telavåg</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C5:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
         <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="4">
@@ -11219,15 +11217,15 @@
         <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f t="shared" ref="G5:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
         <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" ref="H5:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
         <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
-        <f t="shared" ref="I5:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
         <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
@@ -11255,56 +11253,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -11316,56 +11314,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -11377,56 +11375,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -11438,7 +11436,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -11464,30 +11462,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -11500,56 +11498,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -11564,133 +11562,133 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -11717,62 +11715,62 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -11782,7 +11780,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -11792,7 +11790,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -11815,7 +11813,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -11840,7 +11838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -11865,7 +11863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -11896,7 +11894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -11927,7 +11925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -11959,7 +11957,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -11987,7 +11985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -12015,7 +12013,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -12043,7 +12041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -12071,7 +12069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -12099,7 +12097,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -12127,7 +12125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -12155,7 +12153,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -12183,7 +12181,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -12211,7 +12209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -12237,7 +12235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -12265,7 +12263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -12293,7 +12291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -12321,7 +12319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -12349,7 +12347,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -12377,7 +12375,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -12403,7 +12401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -12431,7 +12429,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -12459,7 +12457,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -12487,7 +12485,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -12515,7 +12513,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -12535,7 +12533,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -12555,7 +12553,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -12575,7 +12573,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -12592,18 +12590,18 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12647,7 +12645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -12719,7 +12717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -12793,7 +12791,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -12864,56 +12862,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f t="shared" ref="B4:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Telavåg</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C4:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G5" s="3" t="str">
-        <f t="shared" ref="G4:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
-        <f t="shared" ref="I4:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -12934,29 +12932,29 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -12983,7 +12981,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -13004,56 +13002,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -13065,56 +13063,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -13126,7 +13124,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -13187,56 +13185,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -13248,56 +13246,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -13310,56 +13308,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -13374,29 +13372,29 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -13423,11 +13421,11 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -13436,7 +13434,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -13446,7 +13444,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -13456,7 +13454,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -13466,7 +13464,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -13489,7 +13487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -13514,7 +13512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -13539,7 +13537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -13570,7 +13568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -13601,7 +13599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -13633,7 +13631,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -13661,7 +13659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -13689,7 +13687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -13717,7 +13715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -13745,7 +13743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -13773,7 +13771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -13801,7 +13799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -13829,7 +13827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -13857,7 +13855,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -13885,7 +13883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -13911,7 +13909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -13939,7 +13937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -13967,7 +13965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -13995,7 +13993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -14023,7 +14021,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -14051,7 +14049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -14077,7 +14075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -14105,7 +14103,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -14133,7 +14131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -14161,7 +14159,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -14189,7 +14187,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -14209,7 +14207,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -14229,7 +14227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -14249,7 +14247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -14266,18 +14264,18 @@
       <selection activeCell="A11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14321,7 +14319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -14393,7 +14391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -14467,29 +14465,29 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -14516,7 +14514,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -14537,7 +14535,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -14563,30 +14561,30 @@
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -14607,56 +14605,56 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -14677,56 +14675,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14738,56 +14736,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14799,56 +14797,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14860,29 +14858,29 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -14909,7 +14907,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14921,56 +14919,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -14983,7 +14981,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -15004,8 +15002,8 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -15014,7 +15012,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -15024,7 +15022,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -15034,7 +15032,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -15044,7 +15042,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -15067,7 +15065,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -15092,7 +15090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -15117,7 +15115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -15148,7 +15146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -15179,7 +15177,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -15211,7 +15209,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -15239,7 +15237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -15267,7 +15265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -15295,7 +15293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -15323,7 +15321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -15351,7 +15349,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -15379,7 +15377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -15407,7 +15405,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -15435,7 +15433,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -15463,7 +15461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -15489,7 +15487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -15517,7 +15515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -15545,7 +15543,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -15573,7 +15571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -15601,7 +15599,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -15629,7 +15627,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -15655,7 +15653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -15683,7 +15681,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -15711,7 +15709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -15739,7 +15737,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -15767,7 +15765,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -15787,7 +15785,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -15807,7 +15805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -15827,7 +15825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -15847,19 +15845,19 @@
       <selection activeCell="N14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15903,7 +15901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -15975,7 +15973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -16049,29 +16047,29 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -16098,7 +16096,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -16119,56 +16117,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -16189,56 +16187,56 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -16259,7 +16257,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -16277,7 +16275,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -16295,7 +16293,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -16313,7 +16311,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -16331,7 +16329,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -16350,7 +16348,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -16371,12 +16369,12 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -16385,7 +16383,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -16395,7 +16393,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -16405,7 +16403,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -16415,7 +16413,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -16438,7 +16436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -16463,7 +16461,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -16488,7 +16486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -16519,7 +16517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -16550,7 +16548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -16582,7 +16580,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -16610,7 +16608,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -16638,7 +16636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -16666,7 +16664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -16694,7 +16692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -16722,7 +16720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -16750,7 +16748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -16778,7 +16776,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -16806,7 +16804,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -16834,7 +16832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -16860,7 +16858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -16888,7 +16886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -16916,7 +16914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -16944,7 +16942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -16972,7 +16970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -17000,7 +16998,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -17026,7 +17024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -17054,7 +17052,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -17082,7 +17080,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -17110,7 +17108,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -17138,7 +17136,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="14" t="s">
         <v>60</v>
       </c>
@@ -17158,7 +17156,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="14" t="s">
         <v>36</v>
       </c>
@@ -17178,7 +17176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -17198,7 +17196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -17215,15 +17213,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="9" t="s">
         <v>61</v>
       </c>
@@ -17243,82 +17241,82 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="9" t="s">
         <v>82</v>
       </c>
@@ -17326,7 +17324,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>84</v>
       </c>
@@ -17337,7 +17335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
@@ -17348,7 +17346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
@@ -17359,7 +17357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
@@ -17370,7 +17368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>71</v>
       </c>
@@ -17381,7 +17379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>72</v>
       </c>
@@ -17392,7 +17390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>73</v>
       </c>
@@ -17403,7 +17401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>74</v>
       </c>
@@ -17414,7 +17412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
@@ -17425,7 +17423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
@@ -17436,7 +17434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
@@ -17447,7 +17445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
@@ -17458,7 +17456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>79</v>
       </c>
@@ -17469,7 +17467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>80</v>
       </c>
@@ -17480,7 +17478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>81</v>
       </c>

--- a/Medium Instances/Medium5.xlsx
+++ b/Medium Instances/Medium5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Medium Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B04CD2-8A59-4C6A-840C-157BE71FD99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F495250D-CAF6-4016-A312-88F1A0805868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14640" yWindow="870" windowWidth="12060" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium5" sheetId="14" r:id="rId1"/>
@@ -1176,23 +1176,23 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1250,50 +1250,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1326,50 +1326,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1399,50 +1399,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1472,23 +1472,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1545,50 +1545,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -1609,23 +1609,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:C31" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8:D27" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -1734,50 +1734,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1795,50 +1795,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1857,50 +1857,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1921,50 +1921,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1973,50 +1973,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -2025,50 +2025,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -2077,23 +2077,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -2129,23 +2129,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -2181,50 +2181,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K31" ca="1" si="17">H18*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -2233,50 +2233,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2298,50 +2298,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2365,50 +2365,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2432,50 +2432,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2505,50 +2505,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2598,30 +2598,30 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2652,23 +2652,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2722,23 +2722,23 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -2792,50 +2792,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -2862,50 +2862,50 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ref="I28:I31" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -2932,50 +2932,50 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -3002,50 +3002,50 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -3092,30 +3092,30 @@
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -4876,50 +4876,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -4937,23 +4937,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -4998,50 +4998,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -5060,50 +5060,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -5124,50 +5124,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5176,50 +5176,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -5228,23 +5228,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -5280,23 +5280,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -5332,50 +5332,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -5384,23 +5384,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -5436,50 +5436,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -5501,23 +5501,23 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5544,7 +5544,7 @@
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -5635,50 +5635,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -5708,50 +5708,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -5781,50 +5781,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -5875,30 +5875,30 @@
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -5925,50 +5925,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -5995,50 +5995,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ref="I27" ca="1" si="22">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -7028,50 +7028,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -7089,50 +7089,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -7150,50 +7150,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -7211,50 +7211,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -7272,50 +7272,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -7354,30 +7354,30 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -7398,50 +7398,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7450,50 +7450,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -7502,50 +7502,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -7554,50 +7554,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -7606,50 +7606,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -7658,50 +7658,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -7710,50 +7710,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -7775,50 +7775,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -7842,50 +7842,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -7909,23 +7909,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -8002,30 +8002,30 @@
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -8055,50 +8055,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -8129,50 +8129,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -8199,23 +8199,23 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8242,7 +8242,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -9260,50 +9260,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -9321,50 +9321,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -9382,50 +9382,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -9443,50 +9443,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -9504,50 +9504,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -9566,50 +9566,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -9630,50 +9630,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9682,50 +9682,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -9734,50 +9734,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -9786,23 +9786,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9829,7 +9829,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -9838,23 +9838,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9881,7 +9881,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -9890,50 +9890,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -9942,50 +9942,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -11198,50 +11198,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -11259,50 +11259,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -11320,50 +11320,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -11401,30 +11401,30 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -11442,23 +11442,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -11485,7 +11485,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -11504,50 +11504,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -11568,23 +11568,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11640,30 +11640,30 @@
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -11672,50 +11672,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -11724,50 +11724,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -12868,50 +12868,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -12958,30 +12958,30 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -13008,50 +13008,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -13069,50 +13069,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -13150,30 +13150,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -13191,50 +13191,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -13252,23 +13252,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -13295,7 +13295,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -13314,50 +13314,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -13378,50 +13378,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14471,50 +14471,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -14541,50 +14541,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -14611,50 +14611,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -14681,50 +14681,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14742,50 +14742,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14803,50 +14803,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14864,50 +14864,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14945,30 +14945,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -16053,50 +16053,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -16123,23 +16123,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -16166,7 +16166,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -16193,50 +16193,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/Medium Instances/Medium5.xlsx
+++ b/Medium Instances/Medium5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobni\SamkjøringKode\samkjoring2022\Medium Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAA25F3-DD42-47E4-899A-7E5A97675853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C657866-491E-45C0-8E2D-26747E25BA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium5" sheetId="14" r:id="rId1"/>
@@ -1118,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7183B3FA-4AE0-6948-BD53-5F8AA9DBDA3A}">
   <dimension ref="A1:AB932"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1183,50 +1183,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Hjelteryggen</v>
+        <v>Tofterøy</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.1544819999999998</v>
+        <v>5.0525099999999998</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.381360999999998</v>
+        <v>60.185890000000001</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="0">C2*111.021</f>
-        <v>572.25574612200001</v>
+        <v>560.93471270999999</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.5990795810003</v>
+        <v>6681.8976936899999</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="1">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="2">H2*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1257,50 +1257,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B31" ca="1" si="3">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Arefjord</v>
+        <v>Hjelteryggen</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C31" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.1424630000000002</v>
+        <v>5.1544819999999998</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D31" ca="1" si="5">_xlfn.XLOOKUP(B3,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.358854999999998</v>
+        <v>60.381360999999998</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.92138472300007</v>
+        <v>572.25574612200001</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6701.1004409549996</v>
+        <v>6703.5990795810003</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="6">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1333,50 +1333,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Tofterøy</v>
+        <v>Hellesøy</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0525099999999998</v>
+        <v>4.7908670000000004</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.185890000000001</v>
+        <v>60.661020999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>560.93471270999999</v>
+        <v>531.88684520700008</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6681.8976936899999</v>
+        <v>6734.6472124410002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1406,50 +1406,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Landro</v>
+        <v>Vågo</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9672090000000004</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.423364999999997</v>
+        <v>60.388821</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.464510389</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6708.2624056649993</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="7">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1479,50 +1479,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Straume</v>
+        <v>Tofterøy</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0525099999999998</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.185890000000001</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>560.93471270999999</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6681.8976936899999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1552,50 +1552,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Tofterøy</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0525099999999998</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.185890000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>560.93471270999999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6681.8976936899999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -1616,23 +1616,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Straume</v>
+        <v>Vågo</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.388821</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -1680,50 +1680,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G31" ca="1" si="11">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1741,50 +1741,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Skogsvåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0971859999999998</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.25994</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>565.89468690599995</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.1187987399999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1802,50 +1802,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kleppe</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1359649999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.187809999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.19997026499993</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6682.1108540100004</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1864,50 +1864,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hammersland</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0687990000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.259569999999997</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>562.743133779</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.07772097</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1928,23 +1928,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="W13" t="s">
         <v>42</v>
@@ -1989,50 +1989,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arefjord</v>
+        <v>Rongøy</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1424630000000002</v>
+        <v>4.9155160000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.358854999999998</v>
+        <v>60.507615999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.92138472300007</v>
+        <v>545.72550183600003</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6701.1004409549996</v>
+        <v>6717.6160359360001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="W14" t="s">
         <v>44</v>
@@ -2050,50 +2050,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Straume</v>
+        <v>Skogsvåg</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0971859999999998</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.25994</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>565.89468690599995</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6690.1187987399999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="W15" t="s">
         <v>46</v>
@@ -2111,50 +2111,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knappskog</v>
+        <v>Rongøy</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9155160000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.507615999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>545.72550183600003</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6717.6160359360001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s">
         <v>47</v>
@@ -2172,50 +2172,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knappskog</v>
+        <v>Skogsvåg</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0971859999999998</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.25994</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>565.89468690599995</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.1187987399999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s">
         <v>48</v>
@@ -2233,50 +2233,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="12">C18*111.021</f>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K31" ca="1" si="13">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="W18" t="s">
         <v>49</v>
@@ -2294,50 +2294,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knarrevik</v>
+        <v>Hjelteryggen</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1544819999999998</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.381360999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>572.0939885250001</v>
+        <v>572.25574612200001</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6702.1249427430002</v>
+        <v>6703.5990795810003</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2368,50 +2368,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Spjeld</v>
+        <v>Hellesøy</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.7908670000000004</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.661020999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>559.50231976800001</v>
+        <v>531.88684520700008</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.5962702030001</v>
+        <v>6734.6472124410002</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2444,23 +2444,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Blomøy</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8927480000000001</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.538108000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>543.19777570799999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6721.0012882680003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2520,23 +2520,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Foldnes</v>
+        <v>Vorland</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>566.93628592800007</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.0025637480003</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2597,50 +2597,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hjelteryggen</v>
+        <v>Rongøy</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1544819999999998</v>
+        <v>4.9155160000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.381360999999998</v>
+        <v>60.507615999999999</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>572.25574612200001</v>
+        <v>545.72550183600003</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.5990795810003</v>
+        <v>6717.6160359360001</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2674,50 +2674,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Skogsvåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0971859999999998</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.25994</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>565.89468690599995</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6690.1187987399999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2751,50 +2751,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Vorland</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>554.37814551299994</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.4084226710002</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2830,23 +2830,23 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vorland</v>
+        <v>Landro</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0677450000000004</v>
+        <v>4.9672090000000004</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.227445000000003</v>
+        <v>60.423364999999997</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>562.62611764500002</v>
+        <v>551.464510389</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6686.5111713450005</v>
+        <v>6708.2624056649993</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -2909,50 +2909,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arefjord</v>
+        <v>Hjelteryggen</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1424630000000002</v>
+        <v>5.1544819999999998</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.358854999999998</v>
+        <v>60.381360999999998</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>570.92138472300007</v>
+        <v>572.25574612200001</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6701.1004409549996</v>
+        <v>6703.5990795810003</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -2979,50 +2979,50 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arefjord</v>
+        <v>Vågo</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1424630000000002</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.358854999999998</v>
+        <v>60.388821</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>570.92138472300007</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6701.1004409549996</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ref="I28:I31" ca="1" si="17">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -3049,50 +3049,50 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hammersland</v>
+        <v>Hellesøy</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0687990000000003</v>
+        <v>4.7908670000000004</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.259569999999997</v>
+        <v>60.661020999999998</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>562.743133779</v>
+        <v>531.88684520700008</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6690.07772097</v>
+        <v>6734.6472124410002</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -3119,50 +3119,50 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <v>Kleppe</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <v>60.187809999999999</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>551.37569358899998</v>
+        <v>570.19997026499993</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6709.1102730419998</v>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -3189,23 +3189,23 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bildøyna</v>
+        <v>Solsvik</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>566.88266278499998</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.5708707849999</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -4993,50 +4993,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5054,43 +5054,43 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
@@ -5115,50 +5115,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -5177,50 +5177,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -5241,50 +5241,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5293,43 +5293,43 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
@@ -5345,50 +5345,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -5397,50 +5397,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -5501,23 +5501,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5544,7 +5544,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -5553,23 +5553,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5596,7 +5596,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -5618,50 +5618,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -5685,50 +5685,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -5752,50 +5752,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -5825,50 +5825,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -5898,23 +5898,23 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -5972,50 +5972,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -6042,23 +6042,23 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6112,50 +6112,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ref="I27" ca="1" si="22">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -7145,23 +7145,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -7206,50 +7206,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -7267,50 +7267,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -7328,50 +7328,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -7389,50 +7389,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -7451,50 +7451,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -7515,50 +7515,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7567,23 +7567,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -7619,50 +7619,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -7671,50 +7671,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -7743,30 +7743,30 @@
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -7775,23 +7775,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -7827,50 +7827,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -7892,50 +7892,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -7959,50 +7959,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -8026,23 +8026,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -8099,50 +8099,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -8172,50 +8172,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -8246,50 +8246,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -8336,30 +8336,30 @@
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -9377,50 +9377,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -9458,30 +9458,30 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -9621,50 +9621,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -9683,50 +9683,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -9747,23 +9747,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9790,7 +9790,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9799,43 +9799,43 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
@@ -9851,50 +9851,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -9903,23 +9903,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9946,7 +9946,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -9955,50 +9955,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10007,23 +10007,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10050,7 +10050,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -10059,50 +10059,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -11315,50 +11315,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -11376,23 +11376,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -11419,7 +11419,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -11437,50 +11437,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -11498,50 +11498,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -11559,50 +11559,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -11621,23 +11621,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -11664,7 +11664,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -11685,50 +11685,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11737,50 +11737,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -11789,50 +11789,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -11841,50 +11841,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -12985,23 +12985,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -13028,7 +13028,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13055,23 +13055,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -13098,7 +13098,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -13125,50 +13125,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -13186,50 +13186,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -13247,50 +13247,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -13308,50 +13308,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -13369,50 +13369,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -13431,50 +13431,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -13515,30 +13515,30 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14588,50 +14588,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -14658,50 +14658,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -14728,50 +14728,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -14798,50 +14798,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14859,50 +14859,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14920,50 +14920,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14981,50 +14981,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -15062,30 +15062,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -16170,23 +16170,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -16213,7 +16213,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -16240,50 +16240,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -16310,50 +16310,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
